--- a/config_debug/assets_discount.xlsx
+++ b/config_debug/assets_discount.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
     <author>yang yang</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>id|</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -78,9 +78,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>xiaoxiaole_game</t>
-  </si>
-  <si>
     <t>水果消消乐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -105,23 +102,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_game_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>捕鱼场1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>fishing_game_2</t>
-  </si>
-  <si>
-    <t>fishing_game_3</t>
-  </si>
-  <si>
-    <t>fishing_game_4</t>
-  </si>
-  <si>
     <t>捕鱼场2</t>
   </si>
   <si>
@@ -129,42 +113,63 @@
   </si>
   <si>
     <t>捕鱼场4</t>
+  </si>
+  <si>
+    <t>3D捕鱼场1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼场2</t>
+  </si>
+  <si>
+    <t>3D捕鱼场3</t>
+  </si>
+  <si>
+    <t>3D捕鱼场4</t>
+  </si>
+  <si>
+    <t>1,0.7,</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神消消乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","ty_icon_yxb_2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","ty_icon_yxb_2"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹弹乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>game_id|场次ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing_3d_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>fishing_3d_game</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3D捕鱼场1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>fishing_3d_game</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_2</t>
     </r>
     <r>
       <rPr>
@@ -177,24 +182,11 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>3D捕鱼场2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>fishing_3d_game</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_3</t>
     </r>
     <r>
       <rPr>
@@ -207,143 +199,22 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>3D捕鱼场3</t>
-  </si>
-  <si>
-    <r>
-      <t>fishing_3d_game</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <t>3D捕鱼场4</t>
-  </si>
-  <si>
-    <t>1,0.7,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","xiaoxiaole_jin"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水浒消消乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>财神消消乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>西游消消乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xiaoxiaole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_game</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xiaoxiaole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_game</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>xiaoxiaole</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_game</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","xiaoxiaole_jin"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tantanle_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_shuihu_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_caishen_game</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -747,326 +618,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="29.375" customWidth="1"/>
-    <col min="5" max="5" width="27.125" customWidth="1"/>
-    <col min="6" max="6" width="25.125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="2" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="25.125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
+      <c r="B4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
+      <c r="C11" s="4">
+        <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
+      <c r="C13" s="4">
+        <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_debug/assets_discount.xlsx
+++ b/config_debug/assets_discount.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>id|</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -128,23 +128,11 @@
     <t>3D捕鱼场4</t>
   </si>
   <si>
-    <t>1,0.7,</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>水浒消消乐</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>财神消消乐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","ty_icon_yxb_2"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","ty_icon_yxb_2"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -215,6 +203,10 @@
   </si>
   <si>
     <t>xiaoxiaole_caishen_game</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_yxb_2","jing_bi"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +613,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -642,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -660,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -680,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -700,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -720,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -741,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -762,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -783,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
@@ -804,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -825,7 +817,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -834,10 +826,10 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -846,19 +838,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -867,19 +859,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -888,19 +880,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1"/>
     </row>

--- a/config_debug/assets_discount.xlsx
+++ b/config_debug/assets_discount.xlsx
@@ -206,7 +206,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_yxb_2","jing_bi"</t>
+    <t>"prop_tiny_game_coin","jing_bi"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -613,14 +613,14 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
+    <col min="5" max="5" width="41.75" customWidth="1"/>
     <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="25.125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>

--- a/config_debug/assets_discount.xlsx
+++ b/config_debug/assets_discount.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>id|</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -208,6 +208,9 @@
   <si>
     <t>"prop_tiny_game_coin","jing_bi"</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D捕鱼场5</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -817,16 +820,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>3</v>
@@ -838,13 +841,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>29</v>
@@ -859,13 +862,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>29</v>
@@ -880,13 +883,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>29</v>
@@ -897,12 +900,24 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
